--- a/earlywarning-pom/earlywarning-config/src/baf-instances/45_Inst_Workspace_CIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/45_Inst_Workspace_CIB.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD 500 Gb/Documenti Michele/Lavoro/configurazione CIB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\WS CIB svil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="460" windowWidth="28220" windowHeight="15140"/>
+    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>Workspace</t>
   </si>
@@ -216,9 +216,6 @@
     <t>WS_CIB_BUSINESS</t>
   </si>
   <si>
-    <t>SME Business</t>
-  </si>
-  <si>
     <t>WS_CIB_CORPORATE_COUNTERPARTY_CIB</t>
   </si>
   <si>
@@ -252,10 +249,10 @@
     <t>WS_CIB_BUSINESS_CIB_TARGET</t>
   </si>
   <si>
-    <t>WS_CIB_RETAIL</t>
-  </si>
-  <si>
     <t>CIB_TARGET</t>
+  </si>
+  <si>
+    <t>Small Business</t>
   </si>
 </sst>
 </file>
@@ -323,7 +320,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,20 +984,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1006,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +1040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1051,10 +1048,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>17</v>
@@ -1073,18 +1070,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1091,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1114,44 +1111,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1170,16 +1167,16 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1186,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1209,55 +1206,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1272,18 +1269,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1290,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1313,44 +1310,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1364,22 +1361,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="10" max="13" width="11.6640625" customWidth="1"/>
+    <col min="10" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/45_Inst_Workspace_CIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/45_Inst_Workspace_CIB.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\WS CIB svil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto.collu\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="r Workspace_TargetVariable" sheetId="5" r:id="rId4"/>
     <sheet name="Fields definition" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>Workspace</t>
   </si>
@@ -253,12 +253,24 @@
   </si>
   <si>
     <t>Small Business</t>
+  </si>
+  <si>
+    <t>WS_CIB_BL_CIB_000004</t>
+  </si>
+  <si>
+    <t>BL_CIB_000004</t>
+  </si>
+  <si>
+    <t>WS_CIB_BL_CIB_000005</t>
+  </si>
+  <si>
+    <t>BL_CIB_000005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +364,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -395,7 +413,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -448,7 +472,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -491,7 +521,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -544,7 +580,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -587,7 +629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -640,7 +688,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -683,7 +737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -984,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1161,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,6 +1315,40 @@
       </c>
       <c r="F5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/45_Inst_Workspace_CIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/45_Inst_Workspace_CIB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135"/>
+    <workbookView xWindow="2040" yWindow="465" windowWidth="28215" windowHeight="15135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -1044,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
